--- a/filepath.xlsx
+++ b/filepath.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyulin/Desktop/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyulin/Desktop/code-revised/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE9BF6F-6882-F840-8F9C-291C7D940D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958938FB-CFC4-5642-AF23-CE9F4915BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,121 +27,121 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4001E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4002E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4011E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4012E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4021E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4022E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4031E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4032E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4041E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4042E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4051E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4052E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4061E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4062E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4071E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4072E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4081E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4082E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4091E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4092E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4101E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4102E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4111E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4112E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4121E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4122E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4131E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4141E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4142E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4151E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4152E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4161E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4162E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4171E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4172E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4181E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4182E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4191E0.npz</t>
-  </si>
-  <si>
-    <t>/Users/xiongyulin/Desktop/code/data_edf_20/SC4192E0.npz</t>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4001E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4002E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4011E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4012E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4021E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4022E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4031E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4032E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4041E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4042E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4051E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4052E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4061E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4062E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4071E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4072E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4081E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4082E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4091E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4092E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4101E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4102E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4111E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4112E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4121E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4122E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4131E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4141E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4142E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4151E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4152E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4161E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4162E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4171E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4172E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4181E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4182E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4191E0.npz</t>
+  </si>
+  <si>
+    <t>/home/test/Desktop/Sleep/code-revised/data/SC4192E0.npz</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
